--- a/data/hotels_by_city/Dallas/Dallas_shard_152.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_152.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Skipcesh</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>First off my room had no pillows and only one sheet under a thin bedspread. Called front desk.  And called... And called!   After an hour and a half the overnight employee answered the phone and said he would try to find me a pillow.  I told him there were two guests in my room and he said "now you want two pillows?!"  Forty five minutes later someone pounded on the door without announcing who they were.  When I asked a second then third time who was there "do you want pillows or not" was the reply.  The overnight manager was in a t-shirt and shorts and reeked of alcohol and sweat.  The pillows were crumpled up and had no pillowcases!  If I were to begin writing about the. filthy room that smelled like someone spilled an entire bottle of Fabuloso it would take too long.  Stay away from this place. They hosted the most unpleasant weekend of my life.More</t>
   </si>
   <si>
+    <t>P N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r442192460-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Marilou R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r440607691-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>I arrive this hotel November  24, front desk name Lucy put me in the room that never got clean and is not ready .after I called her and told her why you put me in the room that's not ready to show after all that she told me to come back.to the office finally  she put me in the room that is smells very bad it smells like the room been smoking  and smells Crack I there really bad that I did not even stay there  for a couple of days .I called Lucy again  and all she does is giving  me  the  run around speak to the manager telling me that  he was gonna call me and move  me to another room but no answer from him .I called them so many  times and never got the issue resolved. This place is really a bad area stay away from this place if I were you .I just waste my money I'm very disappointed  with this place and the  crew  they need to be a professional  about even the cleaning lady smokes so bad .More</t>
   </si>
   <si>
+    <t>amyuco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r438829487-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>We booked this room through Hotwire and got a very good deal on this hotel but i will never again book a 2 star hotel through them again...to start off... when I went to check in and the lady at the front desk asked if i wanted to look at the room before i checked in to make sure it looked ok since they are getting ready to do a remodel in January... That should have thrown a red flag but I went ahead and said i already paid through hotwire and asked if the room was clean and if there was clean bedding and she said yes so i went ahead got checked in. Well the outside of motel looked ok...  Well when came in the room it was very ran down and the paint was peeling and there was lights out and there was only one towel in the bathroom. The bedding did look clean and we did not see any sign of bed bugs and the room did look over all clean so we decided to stay since we would only be one night we could handle it. My husband went down to get an extra towel and extra pillow and the people at the front desk were sitting there eating fried chicken and acted like it it would be big deal to try to find a towel and pillow but they would look and bring us...We booked this room through Hotwire and got a very good deal on this hotel but i will never again book a 2 star hotel through them again...to start off... when I went to check in and the lady at the front desk asked if i wanted to look at the room before i checked in to make sure it looked ok since they are getting ready to do a remodel in January... That should have thrown a red flag but I went ahead and said i already paid through hotwire and asked if the room was clean and if there was clean bedding and she said yes so i went ahead got checked in. Well the outside of motel looked ok...  Well when came in the room it was very ran down and the paint was peeling and there was lights out and there was only one towel in the bathroom. The bedding did look clean and we did not see any sign of bed bugs and the room did look over all clean so we decided to stay since we would only be one night we could handle it. My husband went down to get an extra towel and extra pillow and the people at the front desk were sitting there eating fried chicken and acted like it it would be big deal to try to find a towel and pillow but they would look and bring us one later.  Well we got all settled in and we were getting ready to go out for the night and the cleaning crew came in without knocking around 6:30pm and said that room was suppose to vacant and my husband said no we checked in at 3:00pm and they were like oh well you are not showing on our list but we will check.  Then my husband asked them for a towel before they left and they wanted the dirty one we had to exchange it and my husband had to explain to them that i was in the shower and we needed that towel.  So they gave us an extra one finally and then we called the front desk to tell them what happened (oh and the phone was not even plugged in so i had to plug it in)  and the guy acted kinda surprised we were there but said he would look into it and call us back and he did and said it was a miss understanding.  So we went ahead and stayed and everything else went ok but we never got the extra pillow we wanted...More</t>
   </si>
   <si>
+    <t>Charles P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r401094935-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -262,6 +277,9 @@
   </si>
   <si>
     <t>I arrived 1pm, almost 2 hours early for my reservation on the hottest day in Texas.  My car was running hot on the verge of overheating and so was I. I just needed a place to unwind before my job interview which was in 3 hours. I was greeted with a warm smile and pleasant "Hello" from an enthusiastic last from the other side of the front desk wearing a name plate that read "Kari". She proceeded me into the system quickly and efficiently and told me my room would be ready at 3pm as scheduled.  Hoping against hope I asked if I could check in now.  Kari politely informed me that nothing was ready yet and I asked if it was ok if I just waited here and worked on my laptop until my room was ready? She said "of coarse". Was content with just being out of the blistering heat until my interview but unknown to me Kari was busy moving things around so I might get a different room sooner. 15 minutes after I sat down I was given a key to a wonderful chilled room. Which may have something to do with my attitude entering my interview a few hours later.  Thank you Kari. P. S. By the way I got the job. Charles P. More</t>
+  </si>
+  <si>
+    <t>mark h</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r384934321-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
@@ -313,6 +331,9 @@
 6.The rent was stable for over two years now it's been raised twice in two months WITHOUT upgrading rooms or customervservice,since property is over 15 years old.  she has no ability or control of property and arbitrary locks business...New Manager is presenting a harsh reality to patrons of Crossland studios.This new manager has several problems communicating with long standing business clients.This manager shows that she would like to isolate and pound business clients that have been loyal to this business.RENT was raised twice in last two months and sets a standard that she could care less when business clients get cut checks from there corporate company.Here are several points that need addressing before our company employees stay here again.1.This property is over 15 years old No Rate Increase can be justified the rate at 30 per night was sufficient for this property.2.The manager seems to not be glued to the property and has no ability or aptitude to bond with long standing business clients.3.There is no organization on when business clients get housekeeping it could be any day.4.Property had security guard for two years and now has NONE!5.Property has pest control technician that does not spray one entire building in one day there inability to recognize that only spraying individual units does not address the entire pest control problem (pest just moves to next unit) There is no immediate problem!6.The rent was stable for over two years now it's been raised twice in two months WITHOUT upgrading rooms or customervservice,since property is over 15 years old.  she has no ability or control of property and arbitrary locks business clients out of rooms as of 7-01-2016.This is unacceptable they have cell numbers for our companies rooms we occupy but no consideration is ever given.7.Our overall experience of property is (good) previous district manager gave us a room rate that was correct and appropriate for an old property.We have asked to get email or number for new district manager but was denied this from new manager.One thing is she needs a education on treating guests appropriately and yes this is a business but use common sense.More</t>
   </si>
   <si>
+    <t>Trina J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r376896896-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -328,6 +349,9 @@
     <t>After walking into this room I wish I had not already paid for my stay. Parts of the walls were coming apart, I asked for a non-smoking room and the room smelled like it had not been cleaned in 20 years. There were cigarette burns all over the bathroom counter! The bedding was so bad that I had to make a walmart run to buy a blanket and pillow to sleep on along with a ton of febreeze. I will NOT be staying here again!</t>
   </si>
   <si>
+    <t>coleken1981</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r372753850-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -346,6 +370,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Peachykeene31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r370081210-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -364,6 +391,9 @@
     <t>This place is horrible, it is filthy.The tile floors in the bathroom had ground in dirt. There was dirt in the cupboards. We were there 3 weeks before they even changed our bedding, there are as always an issue excuse why it didn't get done. When we would leave the he room to go out and we would check with he door several times we found it wouldn't lock . Outside our room was the trash area and I saw a huge rat,when I told them that hey said oh we are going to dump the trash soon. The office crew is very rude.I will never go back there nor would I recommend it to anyone.Stay away from there.More</t>
   </si>
   <si>
+    <t>longroadtraveler52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r369574559-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -400,6 +430,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Josh B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r339256831-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -418,6 +451,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>vagabondMexicoCity</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r331396092-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -445,6 +481,9 @@
     <t>We had stayed here before under Homestead. Wow I cant believe how it has gone down. DIRTY. From food cartons on the parking to overflowing bins by the stairs did not prepare us for the dirty room . Trash on the floor , dirty bathroom and water running in the toilet. Changed room and not quite so dirty , sheets unironed. Never ever will I go back.Oh , 80 dollars and no breakfast. More</t>
   </si>
   <si>
+    <t>terryguerra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r316688242-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -472,6 +511,9 @@
     <t>This is a sad hotel and I'm so mad at Hotwire for saying this is 2 star. I think this is for people looking for work or a place to live. It is not a hotel. It's really worn out. The door barely opened. There are cigarette butts on the stairs, there are cigarette burns on the sink, it smells like cigarettes. The comforter is snagged worn completely out. I can tell the sheets are clean cause there is a crease. I'm worried about covering up with the comforter. I think I'll get a beach towel out of the car to use. The tub looks clean enough to take a shower. The soap is new in a pkg. the towels look clean except one wash cloth looks dingy. Lesson learned not to book any 2star hotels with Hotwire! More</t>
   </si>
   <si>
+    <t>calitx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r306138857-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -499,6 +541,9 @@
     <t>Not as bad as some of the reviews make it sound, but definitely needs updating and a lot better cleaning.  Holes in the walls, burn marks on the sink of a non smoking room. Could smell smoke from outside or room next door.  Staff was ok, check in person really did not like her job, check out clerk much friendlier.  Probably will not stay here again.  Surprising the bed was fairly comfortable.More</t>
   </si>
   <si>
+    <t>sweetbabies2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r281500650-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -526,6 +571,9 @@
     <t>I've stayed here on business multiple times, never had an issue.  As a chizzler business traveler I can look past the mounds of garbage in the stairwells, dirty carpet, ducked taped tv remote, you get the idea......but I draw the line at being a free lunch for a bunch of bedbugs.  Woke up after the first night with telltale bites all over my arms and shoulders.  2nd night had more bites on my legs.  Of course I couldn't capture any live ones to prove it. Won't ever stay here again. These statements are "allegations" as I have no proof there were actual bedbugs in my room.  All I know is immediately after staying the first and subsequent nights I had bites all over my body that highly resembled bed bug bites / rash.More</t>
   </si>
   <si>
+    <t>Joe V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r244226056-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -556,6 +604,9 @@
     <t>I have stayed at this hotel twice in the last three months.   This is a good hotel with great value for the price.   The location in Addison on the Tollway is very good with numerous good restaurants within a mile or less from the property.  The rooms are clean and comfortable, the kitchenette (full size refrigerator, cooktop and Micro) is another bonus. The property is small and quaint relative to most suite hotels it this class range.  There is no breakfast served which is fine for me since they are often nothing more than basic coffee and cheap pastries.  The money you save will buy a better breakfast.  It is not high star, but for the price it is exceptional.  Most rooms at that price have major drawbacks or worse.  The staff was fine and my late checking was quick and easy.  I had no problems so I did not really need them for anything other than check in.  You could find better hotels but at much higher prices.  I don’t think there are any others will provide a better experience at the current room pricing.More</t>
   </si>
   <si>
+    <t>ScottyWood1927</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r243374569-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -574,6 +625,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Wine_loving_Chef</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r237333809-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -625,6 +679,9 @@
     <t>there is only two clerks here that are helpful and i have stayed on property five months.Will review again next month.this is the property located by racetrack gas Gas station off trinity mills by tollway.More</t>
   </si>
   <si>
+    <t>Jenna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r190550331-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -652,6 +709,9 @@
     <t>If I could give less than one star I would! The staff at this location, from management to housekeeping, is extremely rude and unprofessional. I have stayed here on more than one occasion, and that's one factor that has always been a constant. The rooms frequently have soiled lines, and there is often hair in the shower, as well as on the, 'clean' towels. My final straw with Crossland occurred yesterday. I paid for 2-days, thru Priceline, and upon arriving at the hotel, was told that they had no rooms left. Tino, who works the front desk after hours, was extremely rude, dismissive, and nonchalant in regards to my, 'lost' reservation. The hotel offered no appology, or explanation as to why my reservation was lost. They also informed me that a refund was not the hotel's responsibility. Not exactly what I want to hear after driving 3 1/2 hours from Austin! Bottom Line: take your money and business elsewhere, they've got a lot of work to do! I will also be accelerating this matter to corporate! Thanks, Crossland!More</t>
   </si>
   <si>
+    <t>erickfprevost</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r187742459-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -679,6 +739,9 @@
     <t>Everything was clean and perfect when I arrived. Service is perfect, and parking isn't cramped (I drove a large cargo van, didn't have any problems).The rooms' walls are a bit thin. The walls shake a bit if someone in the room next to yours slams a door. I could also hear when my neighbors were watching TV. It wasn't loud enough for me to hear what it was, I just knew it was on. I never heard any conversations though, so I guess my bed was on the same wall as their TV.More</t>
   </si>
   <si>
+    <t>Thejuanj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r185416375-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -694,6 +757,9 @@
     <t xml:space="preserve">Excellent value!!!!  Very friendly staff. It sits in a perfect location. Easily accessible to the Toll Road, Fine Dining, and shopping. The room had a surprising amount of storage and was the size of a studio apartment. It was the perfect transition for us during our move. </t>
   </si>
   <si>
+    <t>Bartemptress</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r181058945-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -713,6 +779,9 @@
   </si>
   <si>
     <t>I had to find a place to stay for an undetermined amount of time.  My life is rather chaotic right now, to say the least.  I was staying at a hotel in the same area, less than five minutes away.  I was paying almost five times as much per night at that hotel.  The process finding Crossland Economy Suites and making a reservation was easier and less time consuming than I expected.  I ask a lot of questions, and haven't had any problems getting my questions answered.  The property itself is well maintained.  The room may not be the best that money can buy, but for the price, I could not be more satisfied.  The staff has helped me throughout my stay, and the customer service I have received has met and exceeded my expectations. Suhjei stands out for her willingness to help and friendly personality, but the everyone I have encountered has been helpful, friendly, and have always greeted me with a welcoming, warm smile. I would definitely recommend Crossland to a friend, and I am not the easiest person to please.More</t>
+  </si>
+  <si>
+    <t>RNtraveler39</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r180495195-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
@@ -748,6 +817,9 @@
 He called housekeeping to "refresh" my room and she did not want to change the sheets; really?? Silver Lining: The Manager did end up crediting me for one night. However, I had to buy cleaning supplies, disinfectant and a cheap mop to handle my business.
 I understand that you get what you pay for but come on. I just want clean. Me and my little family are pretty adaptable and resilient so we don't need many amenities, just clean. Needless to say, I was getting bit by something all week (fleas, dust mites?).
 The positives: Free Wifi, large refrigerator and bathroom, and decent laundry room. The cable channels sucks and TVs too dated to hook up playstation for movies. The A/C didn't cool the room. Unfortunately, I wouldn't recommend unless you have no other...I chose this hotel because I needed a kitchenette to save a few bucks on dining. To begin with, the hotel looked nice enough from the highway. Up close, you could see that the buildings desperately need power washing and better upkeep for the premises. Upon entering the room, I could see that it was small, not clean and I got a heebee jeebee feeling up my spine. When we pulled back the sheets, there was a huge cricket in the bed. We took him to the front desk and the manager offered another room (although the one I had was one of the "newer rooms"). He called housekeeping to "refresh" my room and she did not want to change the sheets; really?? Silver Lining: The Manager did end up crediting me for one night. However, I had to buy cleaning supplies, disinfectant and a cheap mop to handle my business.I understand that you get what you pay for but come on. I just want clean. Me and my little family are pretty adaptable and resilient so we don't need many amenities, just clean. Needless to say, I was getting bit by something all week (fleas, dust mites?).The positives: Free Wifi, large refrigerator and bathroom, and decent laundry room. The cable channels sucks and TVs too dated to hook up playstation for movies. The A/C didn't cool the room. Unfortunately, I wouldn't recommend unless you have no other choice and unfortunately for us working class folk, that's just how it is sometimes.More</t>
+  </si>
+  <si>
+    <t>Oesth</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r158382313-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
@@ -791,6 +863,9 @@
 * I kept on wondering why they describe their rooms as being equipped with full-kitchen. From where I come from we call it partial-kitchen....I stayed at this location for about a month because I had to relocate to a different state. Of course, no apartment complex will rent an apartment for such a short period of time. Thus, I had no other option.After reading previous reviews I was very concerned about this place but it was the only one in town that seemed to be acceptable and was affordable.To be honest, my very first concern was safety although the area did not seem to be that dangerous. But most of the time at night I was very concerned. There is no fence, no gate so anyone can enter/cross the property anytime and as they wish.AMENITIES:* The day I checked-in, the room smelled very bad. They really need to work on ventilation in this respect. In fact, on the third day you use the bathroom, you can see mold start appearing;* The mattress is a bit hard and sometimes you may think you are sleeping on a board and a thin mattress topper. Not that comfortable. Fortunately, I did not have any problems with bed bugs. Just a baby spider that appeared out of nowhere once in the bathtub;* The carpet in my room was old and dirty and just needed to be replaced;* I kept on wondering why they describe their rooms as being equipped with full-kitchen. From where I come from we call it partial-kitchen. So do not expect to find an oven in the room you'll just have two burners, a small microwave, a full-size fridge, a coffee maker, a sink and some cheap cookware/dinnerware. I used my own cookware/dinnerware;* On the last week of my stay, the fridge in my room kept breaking although it looked like it was new;Contrary to what other people wrote, the place is not noisy. It depends on the people that check-in there. During my whole stay, I can say the noise that some people made was very upsetting (roaring motorbike and someone listening to music in his car late at night).LOCATION:I give this location a 3 rating because of its location. It is conveniently located near a gas station, a bank, restaurants, shopping businesses, a post office, churches...STAFF:Most of them are friendly others less friendly from time to time.More</t>
   </si>
   <si>
+    <t>brittier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r158025472-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -818,6 +893,9 @@
     <t>The hotel is in a great location, lots of restaurants, shopping and right off the Tollway. However, that is the only thing I can say this hotel has going for them. I knew as soon as we pulled up that I was not going to enjoy this one bit. Most of the guests looked like long term tenants who didn't have much going on except to sit in their cars all night and play loud music. The room was extremely unclean and had the worst mildew odor I've ever smelled. We had already booked for 2 nights online but left shortly after arrival. I would never go back or recommend this place to anyone.More</t>
   </si>
   <si>
+    <t>liab501</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r155195255-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -845,6 +923,9 @@
     <t>The Homestead on the Dallas North Tollway suits my work needs so I frequent it often. I am always amazed the chain allows this kind of filth representing thier name. At one point I was told the carpet was new....I took a white washrag to the floor, it was dark grey from the nasty carpet. I found one of the front desk girls to be very rude and unwelcoming.More</t>
   </si>
   <si>
+    <t>MErickson11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r153521935-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -869,6 +950,9 @@
     <t>Worse experience of my life. There is no upkeep on these rooms, they are dirty and smell horrible. Being the cheapest place in town, you can imagine the kind of people that are your neighbors. They are very loud through the night and it generally feels like an unsafe place.STAY AWAY!More</t>
   </si>
   <si>
+    <t>tangoNine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r153374533-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -896,6 +980,9 @@
     <t>I have stayed at this location off and on for several years due to business in the Dallas area. The location is easy to get to and has fast access to the Dallas Tollway as well as local restaurants and attractions. On my last visit it went from a 10 day stay to almost 9 months. If it were not for the staff and the home style feeling that I have when I am there that time could have been a lot worse. The room was very reasonable, up keep and maintenance were handled very professionally, quickly and done taking my schedule in to account. With this trip this really is my home away from home and staying here is like staying with friends.More</t>
   </si>
   <si>
+    <t>RDG2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r151852767-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1010,9 @@
     <t>Extended stay hotels have often been a necessity in my line of work as an IT professional.  Some are better than others and some I would never stay at again.  My treatment at Homestead Suites at North Dallas Parkway in Dallas, Texas has been exceptional.    I can say without reservation my needs have always been met and any concerns I might have are always addressed to my satisfaction.  The staff are pleasant and absolute professionals.  The rooms are clean, comfortable and well kept.  Like any extended stay, it is my home away from home for months at a time.  I have been very happy and fortunate to have been a guest here.More</t>
   </si>
   <si>
+    <t>MP P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r149749592-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1037,9 @@
     <t>Convenient location.  Clean rooms with easy access.  Great staff and management.  Plenty of restaurants nearby and a post office a block away.  Rooms have cooking utensils, silverware, plates, cups, coffee maker, fridge, and a two burner stove top.  I've stayed here numerous times on business trips and have no complaints.More</t>
   </si>
   <si>
+    <t>Tom G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r145247416-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1145,9 @@
     <t>I would like to first say this is one of the most comfortable studio suites I've stayed and was treated  with 5-star service. The cleanliness, quiet sleep, comfortable bedding and the favorite part is the hotel staff. Always make you feel right at home and includes pet stay. Even though I don't have a pet, there's a cute pet policy in the lobby beautifully drafted and created by young children. It gives you the sense of home and away from home. I can't say enough about the staff and house cleaning. The towels and linen are always fresh and soft and cleaned. room temperature easy to adjust for comfort without any problems. The main reason is the kind staff. I have contacted family, friends and business associates to choose this location when in town. The tollway gives you easy access to tour and some of the best restaurants right around the corner including a post office, grocery store and mall down the toll going north or south. Again my favorites are the kind and friendly hotel staff.More</t>
   </si>
   <si>
+    <t>James C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r133864194-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1175,9 @@
     <t>A great value for the price and location. Always a good pick for business travel on a budget. Close to The Addison private airport and the North Dallas business areas.  Easy to find on the North Dallas Tollway.More</t>
   </si>
   <si>
+    <t>Baltasar V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r133389900-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1106,6 +1205,9 @@
     <t>I was very happy staying there, the staff was very friendly (including housekeeping and maintenance persons) it is a big plus that some of them speak Spanish. The only things that I did not like was the slow internet speed and a limited choice tv channels. I am sure I will recommend to friends and I will return to this hotel.More</t>
   </si>
   <si>
+    <t>Corvettegrr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r130950519-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1130,6 +1232,9 @@
     <t>I was very disappointed in my stay. I have stayed here several times in the past but my last 2 visits have been shocking. One night after dinner my co-workers and I decided to hit the town. A male friend of mine was waiting in the car and he was approached by a woman and after several minutes of conversation she told him her working name is diamond but he could call her kat. When he told her we were in for a convention she said if he got lonely just call up to room 251 but it would cost him. The nerve of her to solicit in the parking lot. She then went upstairs with two guys that pulled up stating she was going to have party favors such as drugs if he was interested. The following morning, there were 2 other girls lurking around. Very unprofessional.More</t>
   </si>
   <si>
+    <t>calinative09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r117013946-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1145,6 +1250,9 @@
     <t xml:space="preserve">Stayed for three weeks.  Location is great. Price per week great.  Compared to the sister Homestead up the street needs work.  Management is in the process of redoing rooms.  Grounds are kept clean.  Front desk staff very helpful and WiFi was great.  </t>
   </si>
   <si>
+    <t>Late4Dinner_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r116398940-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1166,6 +1274,9 @@
     <t>Not horrible but be prepared. Negatives: The rooms were beat up.  The housekeeping service does little, if anything.  Floors are not vacuumed and full of other people's hair.  The "free Wi Fi" is a joke.  Signal strength is so week I had to go to a public library.  They wanted to charge I think $5.00 DAILY to upgrade to hi-speed.  Most requests at front desk cannot be accomodated or are ignored.  No joke, I got bit by some kind of bug at night in my room and killed two cockroaches in the room.  Positives: the price is right and the location is central to many amenities including a variety of restaurants.More</t>
   </si>
   <si>
+    <t>Gypsy23434</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r95721612-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1293,9 @@
   </si>
   <si>
     <t>February 2011</t>
+  </si>
+  <si>
+    <t>Laura D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r20860834-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
@@ -1207,6 +1321,9 @@
     <t>Well, the saying "beggars can't be choosers" applies here. My husband is a musician and was playing a show in Frisco, TX. I thought we were going to sleep in the van for the two nights we would have been there, but (long story short) someone in the band booked a handful of rooms for the whole gang. Needless to say, he picked the cheapest hotel he could find. I didn't complain to him since the room was free....and really was grateful that I didn't have to sleep in the van. This hotel is one step up from sleeping in a van.
 I guess it could have been worse, I mean~ at least the bed was clean. The moment we walked in, I noticed the tomato sauce splattered all over the kitchen area. While cleaning that, I noticed something was in the microwave....someone had left a sandwich in there. Not a big deal, but to me this means the room wasn't cleaned thoroughly which is a big problem in my eyes. 
 The other problem was the A/C ended up not working properly. It was well over 100 degrees during the day, so at first I tried to tell myself it was my imagination, but it really didn't work.  I didn't even try to complain about it b/c the front desk person was completely useless. He couldn't give us the number to any cab company, nor could he suggest a place...Well, the saying "beggars can't be choosers" applies here. My husband is a musician and was playing a show in Frisco, TX. I thought we were going to sleep in the van for the two nights we would have been there, but (long story short) someone in the band booked a handful of rooms for the whole gang. Needless to say, he picked the cheapest hotel he could find. I didn't complain to him since the room was free....and really was grateful that I didn't have to sleep in the van. This hotel is one step up from sleeping in a van.I guess it could have been worse, I mean~ at least the bed was clean. The moment we walked in, I noticed the tomato sauce splattered all over the kitchen area. While cleaning that, I noticed something was in the microwave....someone had left a sandwich in there. Not a big deal, but to me this means the room wasn't cleaned thoroughly which is a big problem in my eyes. The other problem was the A/C ended up not working properly. It was well over 100 degrees during the day, so at first I tried to tell myself it was my imagination, but it really didn't work.  I didn't even try to complain about it b/c the front desk person was completely useless. He couldn't give us the number to any cab company, nor could he suggest a place to eat. I suppose if you just need a bed, a bathroom and a roof, this place is fine. If you're looking for anything pleasant, you should look elsewhere.More</t>
+  </si>
+  <si>
+    <t>schweetbubble</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r11483574-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
@@ -1732,43 +1849,47 @@
       <c r="A2" t="n">
         <v>31351</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127613</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1788,50 +1909,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31351</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>21757</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1845,50 +1970,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31351</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>127614</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1902,50 +2031,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31351</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127615</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1965,50 +2098,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31351</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>7012</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2022,50 +2159,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31351</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2814</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2077,56 +2218,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31351</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127616</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2144,50 +2289,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31351</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127617</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2207,50 +2356,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31351</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127618</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2264,50 +2417,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31351</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>68134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2321,7 +2478,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2334,37 +2491,37 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2384,50 +2541,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31351</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>11040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2441,50 +2602,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31351</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127619</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2496,56 +2661,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31351</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127620</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2557,56 +2726,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31351</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127621</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2624,56 +2797,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31351</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127622</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2691,56 +2868,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31351</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>53653</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2758,56 +2939,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31351</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127623</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2825,50 +3010,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31351</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127624</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2886,47 +3075,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31351</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>2814</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
@@ -2953,56 +3146,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X21" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31351</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>78721</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3014,56 +3211,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31351</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127625</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3085,47 +3286,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X23" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31351</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127626</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
@@ -3154,50 +3359,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31351</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127627</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3221,50 +3430,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31351</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127628</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3286,56 +3499,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="X26" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31351</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127629</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3357,56 +3574,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31351</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127630</v>
+      </c>
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3428,56 +3649,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31351</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127631</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3499,47 +3724,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31351</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>127632</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -3566,56 +3795,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="X30" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="Y30" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31351</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>127633</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J31" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="O31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3637,56 +3870,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="X31" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31351</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127634</v>
+      </c>
+      <c r="C32" t="s">
+        <v>306</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3708,56 +3945,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="X32" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="Y32" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31351</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>127635</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="K33" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3779,56 +4020,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="X33" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31351</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>14778</v>
+      </c>
+      <c r="C34" t="s">
+        <v>325</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="O34" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3850,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="X34" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
@@ -3869,37 +4114,37 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3921,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X35" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36">
@@ -3940,37 +4185,37 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3992,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="X36" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37">
@@ -4011,37 +4256,37 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="O37" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4063,56 +4308,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31351</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>4611</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4134,56 +4383,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="X38" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31351</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127636</v>
+      </c>
+      <c r="C39" t="s">
+        <v>371</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="O39" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4205,47 +4458,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="X39" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31351</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127637</v>
+      </c>
+      <c r="C40" t="s">
+        <v>381</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="J40" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="K40" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="L40" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
@@ -4272,47 +4529,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="X40" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="Y40" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31351</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>127638</v>
+      </c>
+      <c r="C41" t="s">
+        <v>390</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -4341,50 +4602,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31351</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127639</v>
+      </c>
+      <c r="C42" t="s">
+        <v>396</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="L42" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4404,50 +4669,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31351</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>127640</v>
+      </c>
+      <c r="C43" t="s">
+        <v>404</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="J43" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="K43" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4471,50 +4740,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31351</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>25677</v>
+      </c>
+      <c r="C44" t="s">
+        <v>411</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="L44" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="O44" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4538,50 +4811,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31351</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127641</v>
+      </c>
+      <c r="C45" t="s">
+        <v>419</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="L45" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="O45" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4605,7 +4882,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_152.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_152.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Skipcesh</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r502394387-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r601305429-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>55711</t>
@@ -165,6 +162,132 @@
     <t>217716</t>
   </si>
   <si>
+    <t>601305429</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>AWFUL!!!</t>
+  </si>
+  <si>
+    <t>Never again!!!Filthy! The front clerk staff was rude. Our room was never cleaned! I had to ask 2 times for towels and was told they needed to do laundry and finally after the third time asking, all of sudden they unwrapped brand new towels. The bathroom, shower and tub looked like it has never been cleaned. I opened the kitchen cabinet and there was marijuana seeds and the smell filled up the the whole room. There is broke down cars in the parking lot! Our neighbor told us we were brave for even staying there!!!NEVER STAY HERE!!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r536049237-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>536049237</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>First Time Visit</t>
+  </si>
+  <si>
+    <t>If you're looking for an inexpensive stay this would be the place to go, it has a full size refrigerator and two burners in case you want to buy groceries and cook. Most of the more expensive don't have that. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Crosslandtrip, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>If you're looking for an inexpensive stay this would be the place to go, it has a full size refrigerator and two burners in case you want to buy groceries and cook. Most of the more expensive don't have that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r574158276-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>574158276</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>This location is going downhill</t>
+  </si>
+  <si>
+    <t>I'm currently staying in room 220.  Only have one more day.  I've stayed here several times over the past years.  The property is deteriorating.  Looks good outside still.  My room has no headboard for the bed - it's actually stored behind the chest of drawers.  Light bulbs are missing, No wash cloths, No phone in the room.  Burn marks on the bathroom counter (this is a no smoking room!).  I'm greatly disappointed.  Will likely not stay here again (even though the corporate offices for my company are located very near).</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r560555102-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>560555102</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>All of these suites are not the same, customer service wise  ..</t>
+  </si>
+  <si>
+    <t>Although the rooms are set up identically, the customer care differs from one location to another. The room was clean (except for the cockroach that I squished, as he tried to escape when I opened the freezer door) and had no bad smells, and for the price, it is still a great bargain. The manager, MeMe, was kind and checked me in, after I had to call her at her apartment. Hours at these hotels differ. The one in Baton Rouge, where I stayed for the last two days, must have gotten me spoiled .. just ring the bell, and you have a real person to talk to. At the one in Ft Worth, where I'm staying tonight, I was made to feel guilty because I'd had car trouble and arrived after 7 PM, rather than 3:45 PM, as my GPS estimated. This is when the office closes, 7 PM. Be sure to bring at least $20 in quarters, and your own detergent, if you plan to use the laundry. Although they offer a swipe thingy for your credit card to start the laundry ($2 in quarters for each, one wash and one dry), when I tried it, it kept coming up weird .. check your interests before you take internet advise. Just be careful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Although the rooms are set up identically, the customer care differs from one location to another. The room was clean (except for the cockroach that I squished, as he tried to escape when I opened the freezer door) and had no bad smells, and for the price, it is still a great bargain. The manager, MeMe, was kind and checked me in, after I had to call her at her apartment. Hours at these hotels differ. The one in Baton Rouge, where I stayed for the last two days, must have gotten me spoiled .. just ring the bell, and you have a real person to talk to. At the one in Ft Worth, where I'm staying tonight, I was made to feel guilty because I'd had car trouble and arrived after 7 PM, rather than 3:45 PM, as my GPS estimated. This is when the office closes, 7 PM. Be sure to bring at least $20 in quarters, and your own detergent, if you plan to use the laundry. Although they offer a swipe thingy for your credit card to start the laundry ($2 in quarters for each, one wash and one dry), when I tried it, it kept coming up weird .. check your interests before you take internet advise. Just be careful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r559403344-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>559403344</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>The young lady Kelly at the front desk was great! The location of the hotel was also great considering I was minutes from the galleria.My room was spacious and clean. My next trip to Dallas, I will be returning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r532694043-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>532694043</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Don't book this place!!!! Be warned!!</t>
+  </si>
+  <si>
+    <t>If you decide to "rough it" for the price you will regreet upon check in! Make sure to pack your own bed linens, pillows, towels, soap of any kind, toilet paper, and most important is cleaning supplies to clean room before unpacking or using bathromm.  Cable sucks and freezes up all the time.  Also its more long term residents living in this place which makes it a high traffic and loud area.  People sitting in cars in the parking lot for hours and just driving away....  If you feel brave then you have been warned.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r502394387-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
     <t>502394387</t>
   </si>
   <si>
@@ -186,10 +309,7 @@
     <t>First off my room had no pillows and only one sheet under a thin bedspread. Called front desk.  And called... And called!   After an hour and a half the overnight employee answered the phone and said he would try to find me a pillow.  I told him there were two guests in my room and he said "now you want two pillows?!"  Forty five minutes later someone pounded on the door without announcing who they were.  When I asked a second then third time who was there "do you want pillows or not" was the reply.  The overnight manager was in a t-shirt and shorts and reeked of alcohol and sweat.  The pillows were crumpled up and had no pillowcases!  If I were to begin writing about the. filthy room that smelled like someone spilled an entire bottle of Fabuloso it would take too long.  Stay away from this place. They hosted the most unpleasant weekend of my life.More</t>
   </si>
   <si>
-    <t>P N</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r442192460-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r442192460-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>442192460</t>
@@ -207,10 +327,7 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Marilou R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r440607691-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r440607691-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>440607691</t>
@@ -228,16 +345,10 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I arrive this hotel November  24, front desk name Lucy put me in the room that never got clean and is not ready .after I called her and told her why you put me in the room that's not ready to show after all that she told me to come back.to the office finally  she put me in the room that is smells very bad it smells like the room been smoking  and smells Crack I there really bad that I did not even stay there  for a couple of days .I called Lucy again  and all she does is giving  me  the  run around speak to the manager telling me that  he was gonna call me and move  me to another room but no answer from him .I called them so many  times and never got the issue resolved. This place is really a bad area stay away from this place if I were you .I just waste my money I'm very disappointed  with this place and the  crew  they need to be a professional  about even the cleaning lady smokes so bad .More</t>
   </si>
   <si>
-    <t>amyuco</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r438829487-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r438829487-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>438829487</t>
@@ -255,10 +366,7 @@
     <t>We booked this room through Hotwire and got a very good deal on this hotel but i will never again book a 2 star hotel through them again...to start off... when I went to check in and the lady at the front desk asked if i wanted to look at the room before i checked in to make sure it looked ok since they are getting ready to do a remodel in January... That should have thrown a red flag but I went ahead and said i already paid through hotwire and asked if the room was clean and if there was clean bedding and she said yes so i went ahead got checked in. Well the outside of motel looked ok...  Well when came in the room it was very ran down and the paint was peeling and there was lights out and there was only one towel in the bathroom. The bedding did look clean and we did not see any sign of bed bugs and the room did look over all clean so we decided to stay since we would only be one night we could handle it. My husband went down to get an extra towel and extra pillow and the people at the front desk were sitting there eating fried chicken and acted like it it would be big deal to try to find a towel and pillow but they would look and bring us...We booked this room through Hotwire and got a very good deal on this hotel but i will never again book a 2 star hotel through them again...to start off... when I went to check in and the lady at the front desk asked if i wanted to look at the room before i checked in to make sure it looked ok since they are getting ready to do a remodel in January... That should have thrown a red flag but I went ahead and said i already paid through hotwire and asked if the room was clean and if there was clean bedding and she said yes so i went ahead got checked in. Well the outside of motel looked ok...  Well when came in the room it was very ran down and the paint was peeling and there was lights out and there was only one towel in the bathroom. The bedding did look clean and we did not see any sign of bed bugs and the room did look over all clean so we decided to stay since we would only be one night we could handle it. My husband went down to get an extra towel and extra pillow and the people at the front desk were sitting there eating fried chicken and acted like it it would be big deal to try to find a towel and pillow but they would look and bring us one later.  Well we got all settled in and we were getting ready to go out for the night and the cleaning crew came in without knocking around 6:30pm and said that room was suppose to vacant and my husband said no we checked in at 3:00pm and they were like oh well you are not showing on our list but we will check.  Then my husband asked them for a towel before they left and they wanted the dirty one we had to exchange it and my husband had to explain to them that i was in the shower and we needed that towel.  So they gave us an extra one finally and then we called the front desk to tell them what happened (oh and the phone was not even plugged in so i had to plug it in)  and the guy acted kinda surprised we were there but said he would look into it and call us back and he did and said it was a miss understanding.  So we went ahead and stayed and everything else went ok but we never got the extra pillow we wanted...More</t>
   </si>
   <si>
-    <t>Charles P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r401094935-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r401094935-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>401094935</t>
@@ -279,10 +387,7 @@
     <t>I arrived 1pm, almost 2 hours early for my reservation on the hottest day in Texas.  My car was running hot on the verge of overheating and so was I. I just needed a place to unwind before my job interview which was in 3 hours. I was greeted with a warm smile and pleasant "Hello" from an enthusiastic last from the other side of the front desk wearing a name plate that read "Kari". She proceeded me into the system quickly and efficiently and told me my room would be ready at 3pm as scheduled.  Hoping against hope I asked if I could check in now.  Kari politely informed me that nothing was ready yet and I asked if it was ok if I just waited here and worked on my laptop until my room was ready? She said "of coarse". Was content with just being out of the blistering heat until my interview but unknown to me Kari was busy moving things around so I might get a different room sooner. 15 minutes after I sat down I was given a key to a wonderful chilled room. Which may have something to do with my attitude entering my interview a few hours later.  Thank you Kari. P. S. By the way I got the job. Charles P. More</t>
   </si>
   <si>
-    <t>mark h</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r384934321-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r384934321-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>384934321</t>
@@ -311,7 +416,7 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded July 13, 2016</t>
+    <t>Alyssa B, Public Relations Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded July 13, 2016</t>
   </si>
   <si>
     <t>Responded July 13, 2016</t>
@@ -331,10 +436,7 @@
 6.The rent was stable for over two years now it's been raised twice in two months WITHOUT upgrading rooms or customervservice,since property is over 15 years old.  she has no ability or control of property and arbitrary locks business...New Manager is presenting a harsh reality to patrons of Crossland studios.This new manager has several problems communicating with long standing business clients.This manager shows that she would like to isolate and pound business clients that have been loyal to this business.RENT was raised twice in last two months and sets a standard that she could care less when business clients get cut checks from there corporate company.Here are several points that need addressing before our company employees stay here again.1.This property is over 15 years old No Rate Increase can be justified the rate at 30 per night was sufficient for this property.2.The manager seems to not be glued to the property and has no ability or aptitude to bond with long standing business clients.3.There is no organization on when business clients get housekeeping it could be any day.4.Property had security guard for two years and now has NONE!5.Property has pest control technician that does not spray one entire building in one day there inability to recognize that only spraying individual units does not address the entire pest control problem (pest just moves to next unit) There is no immediate problem!6.The rent was stable for over two years now it's been raised twice in two months WITHOUT upgrading rooms or customervservice,since property is over 15 years old.  she has no ability or control of property and arbitrary locks business clients out of rooms as of 7-01-2016.This is unacceptable they have cell numbers for our companies rooms we occupy but no consideration is ever given.7.Our overall experience of property is (good) previous district manager gave us a room rate that was correct and appropriate for an old property.We have asked to get email or number for new district manager but was denied this from new manager.One thing is she needs a education on treating guests appropriately and yes this is a business but use common sense.More</t>
   </si>
   <si>
-    <t>Trina J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r376896896-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r376896896-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>376896896</t>
@@ -349,10 +451,7 @@
     <t>After walking into this room I wish I had not already paid for my stay. Parts of the walls were coming apart, I asked for a non-smoking room and the room smelled like it had not been cleaned in 20 years. There were cigarette burns all over the bathroom counter! The bedding was so bad that I had to make a walmart run to buy a blanket and pillow to sleep on along with a ton of febreeze. I will NOT be staying here again!</t>
   </si>
   <si>
-    <t>coleken1981</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r372753850-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r372753850-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>372753850</t>
@@ -370,10 +469,7 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Peachykeene31</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r370081210-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r370081210-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>370081210</t>
@@ -391,10 +487,7 @@
     <t>This place is horrible, it is filthy.The tile floors in the bathroom had ground in dirt. There was dirt in the cupboards. We were there 3 weeks before they even changed our bedding, there are as always an issue excuse why it didn't get done. When we would leave the he room to go out and we would check with he door several times we found it wouldn't lock . Outside our room was the trash area and I saw a huge rat,when I told them that hey said oh we are going to dump the trash soon. The office crew is very rude.I will never go back there nor would I recommend it to anyone.Stay away from there.More</t>
   </si>
   <si>
-    <t>longroadtraveler52</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r369574559-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r369574559-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>369574559</t>
@@ -409,7 +502,7 @@
     <t>Mold, stains, trash, tick full of blood crawling on me in bed, dirty sheets....shouldn't there be at least health codes a dump like this must adhere to?  I hope I don't get sick from all of the above plus being put in a smoking Room when I require non-smoking and mold mold mold.  I will be calling my attorney if I get sick because of this horrible place.  Also, the ghetto music and probably dope dealing goes on outside</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r360002779-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r360002779-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>360002779</t>
@@ -427,13 +520,7 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Josh B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r339256831-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r339256831-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>339256831</t>
@@ -451,10 +538,7 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>vagabondMexicoCity</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r331396092-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r331396092-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>331396092</t>
@@ -472,7 +556,7 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded December 14, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded December 14, 2015</t>
   </si>
   <si>
     <t>Responded December 14, 2015</t>
@@ -481,10 +565,7 @@
     <t>We had stayed here before under Homestead. Wow I cant believe how it has gone down. DIRTY. From food cartons on the parking to overflowing bins by the stairs did not prepare us for the dirty room . Trash on the floor , dirty bathroom and water running in the toilet. Changed room and not quite so dirty , sheets unironed. Never ever will I go back.Oh , 80 dollars and no breakfast. More</t>
   </si>
   <si>
-    <t>terryguerra</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r316688242-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r316688242-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>316688242</t>
@@ -502,7 +583,7 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded October 19, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded October 19, 2015</t>
   </si>
   <si>
     <t>Responded October 19, 2015</t>
@@ -511,10 +592,7 @@
     <t>This is a sad hotel and I'm so mad at Hotwire for saying this is 2 star. I think this is for people looking for work or a place to live. It is not a hotel. It's really worn out. The door barely opened. There are cigarette butts on the stairs, there are cigarette burns on the sink, it smells like cigarettes. The comforter is snagged worn completely out. I can tell the sheets are clean cause there is a crease. I'm worried about covering up with the comforter. I think I'll get a beach towel out of the car to use. The tub looks clean enough to take a shower. The soap is new in a pkg. the towels look clean except one wash cloth looks dingy. Lesson learned not to book any 2star hotels with Hotwire! More</t>
   </si>
   <si>
-    <t>calitx</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r306138857-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r306138857-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>306138857</t>
@@ -532,7 +610,7 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded September 17, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded September 17, 2015</t>
   </si>
   <si>
     <t>Responded September 17, 2015</t>
@@ -541,10 +619,7 @@
     <t>Not as bad as some of the reviews make it sound, but definitely needs updating and a lot better cleaning.  Holes in the walls, burn marks on the sink of a non smoking room. Could smell smoke from outside or room next door.  Staff was ok, check in person really did not like her job, check out clerk much friendlier.  Probably will not stay here again.  Surprising the bed was fairly comfortable.More</t>
   </si>
   <si>
-    <t>sweetbabies2</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r281500650-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r281500650-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>281500650</t>
@@ -562,7 +637,7 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded July 7, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded July 7, 2015</t>
   </si>
   <si>
     <t>Responded July 7, 2015</t>
@@ -571,10 +646,7 @@
     <t>I've stayed here on business multiple times, never had an issue.  As a chizzler business traveler I can look past the mounds of garbage in the stairwells, dirty carpet, ducked taped tv remote, you get the idea......but I draw the line at being a free lunch for a bunch of bedbugs.  Woke up after the first night with telltale bites all over my arms and shoulders.  2nd night had more bites on my legs.  Of course I couldn't capture any live ones to prove it. Won't ever stay here again. These statements are "allegations" as I have no proof there were actual bedbugs in my room.  All I know is immediately after staying the first and subsequent nights I had bites all over my body that highly resembled bed bug bites / rash.More</t>
   </si>
   <si>
-    <t>Joe V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r244226056-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r244226056-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>244226056</t>
@@ -592,10 +664,7 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded December 16, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded December 16, 2014</t>
   </si>
   <si>
     <t>Responded December 16, 2014</t>
@@ -604,10 +673,7 @@
     <t>I have stayed at this hotel twice in the last three months.   This is a good hotel with great value for the price.   The location in Addison on the Tollway is very good with numerous good restaurants within a mile or less from the property.  The rooms are clean and comfortable, the kitchenette (full size refrigerator, cooktop and Micro) is another bonus. The property is small and quaint relative to most suite hotels it this class range.  There is no breakfast served which is fine for me since they are often nothing more than basic coffee and cheap pastries.  The money you save will buy a better breakfast.  It is not high star, but for the price it is exceptional.  Most rooms at that price have major drawbacks or worse.  The staff was fine and my late checking was quick and easy.  I had no problems so I did not really need them for anything other than check in.  You could find better hotels but at much higher prices.  I don’t think there are any others will provide a better experience at the current room pricing.More</t>
   </si>
   <si>
-    <t>ScottyWood1927</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r243374569-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r243374569-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>243374569</t>
@@ -622,13 +688,7 @@
     <t>I didn't think a chain could be a step down from Extended Stay, but this is.  This is the bare minimum.  The tub coating was peeling.  The room had been smoked in.  There were cigarette burns on bathroom fixtures.  Staff was new and slow, but very helpful.  I was upgraded to a room with two beds after asking, which was a great help to us.  Rooms are ready for some remodeling.  The bed was incredibly hard and uncomfortable. However, the facility was near capacity, so they have found their niche.  I would stay again for the price.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Wine_loving_Chef</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r237333809-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r237333809-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>237333809</t>
@@ -646,7 +706,7 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded November 7, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded November 7, 2014</t>
   </si>
   <si>
     <t>Responded November 7, 2014</t>
@@ -655,7 +715,7 @@
     <t>This property is inexpensive for the Dallas area, but there is a reason.  The rooms need some serious updating.  The bathroom in my room had extensive mold around the bathtub and what looked like cigarette burns on the counter top.The room also had an unpleasant odor.the staff was friendly, but management needs to spend some time cleaning and updating this property.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r237058298-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r237058298-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>237058298</t>
@@ -670,7 +730,7 @@
     <t>there is only two clerks here that are helpful and i have stayed on property five months.Will review again next month.this is the property located by racetrack gas Gas station off trinity mills by tollway.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded November 3, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded November 3, 2014</t>
   </si>
   <si>
     <t>Responded November 3, 2014</t>
@@ -679,10 +739,94 @@
     <t>there is only two clerks here that are helpful and i have stayed on property five months.Will review again next month.this is the property located by racetrack gas Gas station off trinity mills by tollway.More</t>
   </si>
   <si>
-    <t>Jenna M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r190550331-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r229437805-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>229437805</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Not Recommended</t>
+  </si>
+  <si>
+    <t>if you are staying only a night or two, and have no other options and are really tired, this place is adequate.  would not recommend it if you have plans for extended stay.  the carpet and bedspread feel filthy, the air conditioner was loud, old and moldy, the furnishings are old and scankie, the TV is ancient and it took me two weeks before I finally found the remote under the bed, every noise from the outside can be easily heard.  there is no working space if you need it, only a small counter next to the refrigerator in a cramped room.  Next time I'll pay the extra 10 dollars a day and get what I would expect when the advertisement calls it a suite or studio.  I feel stupid for staying so long, but once moved in I decided to rough it out.  do not expect to spread out and work or relax in even moderate comfort. I was there a month and was given one toilet paper roll a week, and one small thin trash bag a week, the cleaning person came only twice the whole time I was there. when people smoke outside their room door its as if they are sitting there next to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>if you are staying only a night or two, and have no other options and are really tired, this place is adequate.  would not recommend it if you have plans for extended stay.  the carpet and bedspread feel filthy, the air conditioner was loud, old and moldy, the furnishings are old and scankie, the TV is ancient and it took me two weeks before I finally found the remote under the bed, every noise from the outside can be easily heard.  there is no working space if you need it, only a small counter next to the refrigerator in a cramped room.  Next time I'll pay the extra 10 dollars a day and get what I would expect when the advertisement calls it a suite or studio.  I feel stupid for staying so long, but once moved in I decided to rough it out.  do not expect to spread out and work or relax in even moderate comfort. I was there a month and was given one toilet paper roll a week, and one small thin trash bag a week, the cleaning person came only twice the whole time I was there. when people smoke outside their room door its as if they are sitting there next to you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r224983454-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>224983454</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here go elsewhere</t>
+  </si>
+  <si>
+    <t>I have stayed here before in March. Now I'm back in Aug my room had roaches and a foul smell coming out the vent like something died.. Prostitutes have their johns knocking on the wrong door at odd times of the morning I'm very disappointed with this location now i had no problems in March just disgusting!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r211888520-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>211888520</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>donna and isis were very helpful</t>
+  </si>
+  <si>
+    <t>Great customer service from my first phone call there to donna.very good value herethanks again I will leave another review when I check out the hotel is located off tollway which is perfect for my business trips from Mark</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r203533907-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>203533907</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Beware of Donna and Corey</t>
+  </si>
+  <si>
+    <t>I went to the hotel around nine in the morning to check in, I was told there were no rooms available, I asked if one could be cleaned for me, I was told no, and to come back around three, I was very disappointed. I had to kill time most of the day before I could get into a room, so I was very tired, I eventually showed up to the hotel around six in the afternoon, to a very rude gentleman in the office named Corey, He took his time to check me in, and he gave me room 236. When I made it to the room I headed straight for the shower as dirty as I was, and my mother followed behind me, I didn't pay any attention to the room at first until my mother showed me sticky bed sheets and a condom in the night stand drawer, My mother was angry at what she found, so she went down to the office to be moved to another room, Corey offered to move us to an entire different hotel, my mother asked to just be moved to a different room instead, and after she asked Corey started going off on my mother and got defensive about the room and threatened to call the police to have us removed, my mother said don't bother, I'll call them, after thirty min two Dallas Police officers showed up, One of...I went to the hotel around nine in the morning to check in, I was told there were no rooms available, I asked if one could be cleaned for me, I was told no, and to come back around three, I was very disappointed. I had to kill time most of the day before I could get into a room, so I was very tired, I eventually showed up to the hotel around six in the afternoon, to a very rude gentleman in the office named Corey, He took his time to check me in, and he gave me room 236. When I made it to the room I headed straight for the shower as dirty as I was, and my mother followed behind me, I didn't pay any attention to the room at first until my mother showed me sticky bed sheets and a condom in the night stand drawer, My mother was angry at what she found, so she went down to the office to be moved to another room, Corey offered to move us to an entire different hotel, my mother asked to just be moved to a different room instead, and after she asked Corey started going off on my mother and got defensive about the room and threatened to call the police to have us removed, my mother said don't bother, I'll call them, after thirty min two Dallas Police officers showed up, One of them said he would see what he could do to help us, different room, refund etc. instead Corey of Crossland Economy Studios had me and my mother trespassed off property and we were told not to return and he kept our money, the cop felt bad for us and agreed Corey was a douche. I have a attorney retained now, This is just a warning for you folks out there, don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I went to the hotel around nine in the morning to check in, I was told there were no rooms available, I asked if one could be cleaned for me, I was told no, and to come back around three, I was very disappointed. I had to kill time most of the day before I could get into a room, so I was very tired, I eventually showed up to the hotel around six in the afternoon, to a very rude gentleman in the office named Corey, He took his time to check me in, and he gave me room 236. When I made it to the room I headed straight for the shower as dirty as I was, and my mother followed behind me, I didn't pay any attention to the room at first until my mother showed me sticky bed sheets and a condom in the night stand drawer, My mother was angry at what she found, so she went down to the office to be moved to another room, Corey offered to move us to an entire different hotel, my mother asked to just be moved to a different room instead, and after she asked Corey started going off on my mother and got defensive about the room and threatened to call the police to have us removed, my mother said don't bother, I'll call them, after thirty min two Dallas Police officers showed up, One of...I went to the hotel around nine in the morning to check in, I was told there were no rooms available, I asked if one could be cleaned for me, I was told no, and to come back around three, I was very disappointed. I had to kill time most of the day before I could get into a room, so I was very tired, I eventually showed up to the hotel around six in the afternoon, to a very rude gentleman in the office named Corey, He took his time to check me in, and he gave me room 236. When I made it to the room I headed straight for the shower as dirty as I was, and my mother followed behind me, I didn't pay any attention to the room at first until my mother showed me sticky bed sheets and a condom in the night stand drawer, My mother was angry at what she found, so she went down to the office to be moved to another room, Corey offered to move us to an entire different hotel, my mother asked to just be moved to a different room instead, and after she asked Corey started going off on my mother and got defensive about the room and threatened to call the police to have us removed, my mother said don't bother, I'll call them, after thirty min two Dallas Police officers showed up, One of them said he would see what he could do to help us, different room, refund etc. instead Corey of Crossland Economy Studios had me and my mother trespassed off property and we were told not to return and he kept our money, the cop felt bad for us and agreed Corey was a douche. I have a attorney retained now, This is just a warning for you folks out there, don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r202554282-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>202554282</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay for Economy</t>
+  </si>
+  <si>
+    <t>This was a short stay of 3 nights while working on project. Not high end, but clean and well kept and great value! Staff is friendly. Price is great. No, it is not super high end accomodations, but for business and a clean place to sleep and shower....it is all good!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r190550331-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>190550331</t>
@@ -700,7 +844,7 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Manager_11525, Owner at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded January 23, 2014</t>
+    <t>Manager_11525, Owner at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded January 23, 2014</t>
   </si>
   <si>
     <t>Responded January 23, 2014</t>
@@ -709,10 +853,7 @@
     <t>If I could give less than one star I would! The staff at this location, from management to housekeeping, is extremely rude and unprofessional. I have stayed here on more than one occasion, and that's one factor that has always been a constant. The rooms frequently have soiled lines, and there is often hair in the shower, as well as on the, 'clean' towels. My final straw with Crossland occurred yesterday. I paid for 2-days, thru Priceline, and upon arriving at the hotel, was told that they had no rooms left. Tino, who works the front desk after hours, was extremely rude, dismissive, and nonchalant in regards to my, 'lost' reservation. The hotel offered no appology, or explanation as to why my reservation was lost. They also informed me that a refund was not the hotel's responsibility. Not exactly what I want to hear after driving 3 1/2 hours from Austin! Bottom Line: take your money and business elsewhere, they've got a lot of work to do! I will also be accelerating this matter to corporate! Thanks, Crossland!More</t>
   </si>
   <si>
-    <t>erickfprevost</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r187742459-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r187742459-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>187742459</t>
@@ -730,7 +871,7 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded December 20, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded December 20, 2013</t>
   </si>
   <si>
     <t>Responded December 20, 2013</t>
@@ -739,10 +880,7 @@
     <t>Everything was clean and perfect when I arrived. Service is perfect, and parking isn't cramped (I drove a large cargo van, didn't have any problems).The rooms' walls are a bit thin. The walls shake a bit if someone in the room next to yours slams a door. I could also hear when my neighbors were watching TV. It wasn't loud enough for me to hear what it was, I just knew it was on. I never heard any conversations though, so I guess my bed was on the same wall as their TV.More</t>
   </si>
   <si>
-    <t>Thejuanj</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r185416375-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r185416375-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>185416375</t>
@@ -757,10 +895,7 @@
     <t xml:space="preserve">Excellent value!!!!  Very friendly staff. It sits in a perfect location. Easily accessible to the Toll Road, Fine Dining, and shopping. The room had a surprising amount of storage and was the size of a studio apartment. It was the perfect transition for us during our move. </t>
   </si>
   <si>
-    <t>Bartemptress</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r181058945-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r181058945-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>181058945</t>
@@ -781,10 +916,7 @@
     <t>I had to find a place to stay for an undetermined amount of time.  My life is rather chaotic right now, to say the least.  I was staying at a hotel in the same area, less than five minutes away.  I was paying almost five times as much per night at that hotel.  The process finding Crossland Economy Suites and making a reservation was easier and less time consuming than I expected.  I ask a lot of questions, and haven't had any problems getting my questions answered.  The property itself is well maintained.  The room may not be the best that money can buy, but for the price, I could not be more satisfied.  The staff has helped me throughout my stay, and the customer service I have received has met and exceeded my expectations. Suhjei stands out for her willingness to help and friendly personality, but the everyone I have encountered has been helpful, friendly, and have always greeted me with a welcoming, warm smile. I would definitely recommend Crossland to a friend, and I am not the easiest person to please.More</t>
   </si>
   <si>
-    <t>RNtraveler39</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r180495195-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r180495195-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>180495195</t>
@@ -806,7 +938,7 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded October 14, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded October 14, 2013</t>
   </si>
   <si>
     <t>Responded October 14, 2013</t>
@@ -819,10 +951,133 @@
 The positives: Free Wifi, large refrigerator and bathroom, and decent laundry room. The cable channels sucks and TVs too dated to hook up playstation for movies. The A/C didn't cool the room. Unfortunately, I wouldn't recommend unless you have no other...I chose this hotel because I needed a kitchenette to save a few bucks on dining. To begin with, the hotel looked nice enough from the highway. Up close, you could see that the buildings desperately need power washing and better upkeep for the premises. Upon entering the room, I could see that it was small, not clean and I got a heebee jeebee feeling up my spine. When we pulled back the sheets, there was a huge cricket in the bed. We took him to the front desk and the manager offered another room (although the one I had was one of the "newer rooms"). He called housekeeping to "refresh" my room and she did not want to change the sheets; really?? Silver Lining: The Manager did end up crediting me for one night. However, I had to buy cleaning supplies, disinfectant and a cheap mop to handle my business.I understand that you get what you pay for but come on. I just want clean. Me and my little family are pretty adaptable and resilient so we don't need many amenities, just clean. Needless to say, I was getting bit by something all week (fleas, dust mites?).The positives: Free Wifi, large refrigerator and bathroom, and decent laundry room. The cable channels sucks and TVs too dated to hook up playstation for movies. The A/C didn't cool the room. Unfortunately, I wouldn't recommend unless you have no other choice and unfortunately for us working class folk, that's just how it is sometimes.More</t>
   </si>
   <si>
-    <t>Oesth</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r158382313-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r180339571-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>180339571</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>maid service</t>
+  </si>
+  <si>
+    <t>the maid service is only adequate at best---the rest is fine----the front desk staff is very friendly and the maintainance staff are very good.  with the one exception of maid staff seeming to be unwilling to clean well i would recommend this facility to all----i have been in this room almost a yearMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>the maid service is only adequate at best---the rest is fine----the front desk staff is very friendly and the maintainance staff are very good.  with the one exception of maid staff seeming to be unwilling to clean well i would recommend this facility to all----i have been in this room almost a yearMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r167122208-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>167122208</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>I would comback again.</t>
+  </si>
+  <si>
+    <t>This have been a long stay for myself and my children but it's a very nice place I would recommend this hotel to anyone to stay there it's like an apartment close to my job and shopping centers.very cozy make me feel like iam home very nice help at the front desk especially in makeing sure that my family was alright and comfortable Thanks crossland studios u truly have met a lot of my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded July 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2013</t>
+  </si>
+  <si>
+    <t>This have been a long stay for myself and my children but it's a very nice place I would recommend this hotel to anyone to stay there it's like an apartment close to my job and shopping centers.very cozy make me feel like iam home very nice help at the front desk especially in makeing sure that my family was alright and comfortable Thanks crossland studios u truly have met a lot of my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r161162604-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>161162604</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Great price with great location</t>
+  </si>
+  <si>
+    <t>I visit the Dallas area at least 6 times a year for business and family. This location is perfect and since I usually travel alone and am a female, safety is always a concern to me. I felt very safe in this location. I hope that helps with any females traveling alone reading this.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>I visit the Dallas area at least 6 times a year for business and family. This location is perfect and since I usually travel alone and am a female, safety is always a concern to me. I felt very safe in this location. I hope that helps with any females traveling alone reading this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r160376447-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>160376447</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Price and Convenience X-Factor</t>
+  </si>
+  <si>
+    <t>Perfect location on the on the North Dallas Tollway, minutes from George Bush Tollway and streamlined access just about anywhere else you need to be during your stay.  In one week, I shot down to a Rush concert in Austin, (3 hrs) Played slots at Winstar in Ok (1 hr), and went to Cowboy stadium for the draft party. (45 minutes)  All from this one central location.  This is an economy suites type hotel and normally, one would say you get what you pay for, but here the price is value added. The rooms are clean and the staff are wonderful, but best of all this is the place to be if you are on the move and need to get there with the minimal to modest effort.  That's why I keep coming back time and time again. Travelers who find this oasis and get it.  Stay here repeatedly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Perfect location on the on the North Dallas Tollway, minutes from George Bush Tollway and streamlined access just about anywhere else you need to be during your stay.  In one week, I shot down to a Rush concert in Austin, (3 hrs) Played slots at Winstar in Ok (1 hr), and went to Cowboy stadium for the draft party. (45 minutes)  All from this one central location.  This is an economy suites type hotel and normally, one would say you get what you pay for, but here the price is value added. The rooms are clean and the staff are wonderful, but best of all this is the place to be if you are on the move and need to get there with the minimal to modest effort.  That's why I keep coming back time and time again. Travelers who find this oasis and get it.  Stay here repeatedly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r159084569-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>159084569</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Great Staff - Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I have been staying at the Crossland Economy Studios for an extended stay due to work relocation.  Some people here have short stays and others may be longer.  It is an economy studio and perfect for those who need a clean place to stay without all the frills. The kitchen with full size refrigerator and stove top allows meals to be prepared. Basic amenities like bar soap, dish washing liquid are provided.  For extended stays housekeeping comes in weekly to freshen everything.  If needed, additional service can be ordered.  There is a good sized laundry on the property with key card access. There are many stores and restaurants in the area and quick access to the the Tollway. For the price it can't be beat.  I have mainly interacted with Donna (Manager) and Isais in the office. They are both very efficient, friendly and responsive to any needs or concerns. Thanks to all for a great stay and a home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded April 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2013</t>
+  </si>
+  <si>
+    <t>I have been staying at the Crossland Economy Studios for an extended stay due to work relocation.  Some people here have short stays and others may be longer.  It is an economy studio and perfect for those who need a clean place to stay without all the frills. The kitchen with full size refrigerator and stove top allows meals to be prepared. Basic amenities like bar soap, dish washing liquid are provided.  For extended stays housekeeping comes in weekly to freshen everything.  If needed, additional service can be ordered.  There is a good sized laundry on the property with key card access. There are many stores and restaurants in the area and quick access to the the Tollway. For the price it can't be beat.  I have mainly interacted with Donna (Manager) and Isais in the office. They are both very efficient, friendly and responsive to any needs or concerns. Thanks to all for a great stay and a home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r158382313-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>158382313</t>
@@ -847,7 +1102,7 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded April 24, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded April 24, 2013</t>
   </si>
   <si>
     <t>Responded April 24, 2013</t>
@@ -863,10 +1118,7 @@
 * I kept on wondering why they describe their rooms as being equipped with full-kitchen. From where I come from we call it partial-kitchen....I stayed at this location for about a month because I had to relocate to a different state. Of course, no apartment complex will rent an apartment for such a short period of time. Thus, I had no other option.After reading previous reviews I was very concerned about this place but it was the only one in town that seemed to be acceptable and was affordable.To be honest, my very first concern was safety although the area did not seem to be that dangerous. But most of the time at night I was very concerned. There is no fence, no gate so anyone can enter/cross the property anytime and as they wish.AMENITIES:* The day I checked-in, the room smelled very bad. They really need to work on ventilation in this respect. In fact, on the third day you use the bathroom, you can see mold start appearing;* The mattress is a bit hard and sometimes you may think you are sleeping on a board and a thin mattress topper. Not that comfortable. Fortunately, I did not have any problems with bed bugs. Just a baby spider that appeared out of nowhere once in the bathtub;* The carpet in my room was old and dirty and just needed to be replaced;* I kept on wondering why they describe their rooms as being equipped with full-kitchen. From where I come from we call it partial-kitchen. So do not expect to find an oven in the room you'll just have two burners, a small microwave, a full-size fridge, a coffee maker, a sink and some cheap cookware/dinnerware. I used my own cookware/dinnerware;* On the last week of my stay, the fridge in my room kept breaking although it looked like it was new;Contrary to what other people wrote, the place is not noisy. It depends on the people that check-in there. During my whole stay, I can say the noise that some people made was very upsetting (roaring motorbike and someone listening to music in his car late at night).LOCATION:I give this location a 3 rating because of its location. It is conveniently located near a gas station, a bank, restaurants, shopping businesses, a post office, churches...STAFF:Most of them are friendly others less friendly from time to time.More</t>
   </si>
   <si>
-    <t>brittier</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r158025472-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r158025472-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>158025472</t>
@@ -881,10 +1133,7 @@
     <t>The hotel is in a great location, lots of restaurants, shopping and right off the Tollway. However, that is the only thing I can say this hotel has going for them. I knew as soon as we pulled up that I was not going to enjoy this one bit. Most of the guests looked like long term tenants who didn't have much going on except to sit in their cars all night and play loud music. The room was extremely unclean and had the worst mildew odor I've ever smelled. We had already booked for 2 nights online but left shortly after arrival. I would never go back or recommend this place to anyone.MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded April 18, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded April 18, 2013</t>
   </si>
   <si>
     <t>Responded April 18, 2013</t>
@@ -893,10 +1142,7 @@
     <t>The hotel is in a great location, lots of restaurants, shopping and right off the Tollway. However, that is the only thing I can say this hotel has going for them. I knew as soon as we pulled up that I was not going to enjoy this one bit. Most of the guests looked like long term tenants who didn't have much going on except to sit in their cars all night and play loud music. The room was extremely unclean and had the worst mildew odor I've ever smelled. We had already booked for 2 nights online but left shortly after arrival. I would never go back or recommend this place to anyone.More</t>
   </si>
   <si>
-    <t>liab501</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r155195255-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r155195255-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>155195255</t>
@@ -914,7 +1160,7 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded March 21, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded March 21, 2013</t>
   </si>
   <si>
     <t>Responded March 21, 2013</t>
@@ -923,10 +1169,7 @@
     <t>The Homestead on the Dallas North Tollway suits my work needs so I frequent it often. I am always amazed the chain allows this kind of filth representing thier name. At one point I was told the carpet was new....I took a white washrag to the floor, it was dark grey from the nasty carpet. I found one of the front desk girls to be very rude and unwelcoming.More</t>
   </si>
   <si>
-    <t>MErickson11</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r153521935-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r153521935-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>153521935</t>
@@ -941,7 +1184,7 @@
     <t>Worse experience of my life. There is no upkeep on these rooms, they are dirty and smell horrible. Being the cheapest place in town, you can imagine the kind of people that are your neighbors. They are very loud through the night and it generally feels like an unsafe place.STAY AWAY!MoreShow less</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded March 3, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded March 3, 2013</t>
   </si>
   <si>
     <t>Responded March 3, 2013</t>
@@ -950,10 +1193,7 @@
     <t>Worse experience of my life. There is no upkeep on these rooms, they are dirty and smell horrible. Being the cheapest place in town, you can imagine the kind of people that are your neighbors. They are very loud through the night and it generally feels like an unsafe place.STAY AWAY!More</t>
   </si>
   <si>
-    <t>tangoNine</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r153374533-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r153374533-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>153374533</t>
@@ -971,7 +1211,7 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>TOL9707, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded March 1, 2013</t>
+    <t>TOL9707, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded March 1, 2013</t>
   </si>
   <si>
     <t>Responded March 1, 2013</t>
@@ -980,10 +1220,7 @@
     <t>I have stayed at this location off and on for several years due to business in the Dallas area. The location is easy to get to and has fast access to the Dallas Tollway as well as local restaurants and attractions. On my last visit it went from a 10 day stay to almost 9 months. If it were not for the staff and the home style feeling that I have when I am there that time could have been a lot worse. The room was very reasonable, up keep and maintenance were handled very professionally, quickly and done taking my schedule in to account. With this trip this really is my home away from home and staying here is like staying with friends.More</t>
   </si>
   <si>
-    <t>RDG2012</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r151852767-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r151852767-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>151852767</t>
@@ -1001,7 +1238,7 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded February 14, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded February 14, 2013</t>
   </si>
   <si>
     <t>Responded February 14, 2013</t>
@@ -1010,10 +1247,7 @@
     <t>Extended stay hotels have often been a necessity in my line of work as an IT professional.  Some are better than others and some I would never stay at again.  My treatment at Homestead Suites at North Dallas Parkway in Dallas, Texas has been exceptional.    I can say without reservation my needs have always been met and any concerns I might have are always addressed to my satisfaction.  The staff are pleasant and absolute professionals.  The rooms are clean, comfortable and well kept.  Like any extended stay, it is my home away from home for months at a time.  I have been very happy and fortunate to have been a guest here.More</t>
   </si>
   <si>
-    <t>MP P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r149749592-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r149749592-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>149749592</t>
@@ -1028,7 +1262,7 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded January 17, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded January 17, 2013</t>
   </si>
   <si>
     <t>Responded January 17, 2013</t>
@@ -1037,10 +1271,7 @@
     <t>Convenient location.  Clean rooms with easy access.  Great staff and management.  Plenty of restaurants nearby and a post office a block away.  Rooms have cooking utensils, silverware, plates, cups, coffee maker, fridge, and a two burner stove top.  I've stayed here numerous times on business trips and have no complaints.More</t>
   </si>
   <si>
-    <t>Tom G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r145247416-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r145247416-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>145247416</t>
@@ -1058,7 +1289,7 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded November 14, 2012</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded November 14, 2012</t>
   </si>
   <si>
     <t>Responded November 14, 2012</t>
@@ -1067,7 +1298,7 @@
     <t>Staff was friendly, helpful, and honest.Weekly rate was about $38 per night.Room was clean and quiet.  Didn't hear any other people, aside from those passing along the walkway outside.  Very little noise relative to many hotels.  Room was well-stocked with dishes, flatware, pot, pan, etc.Neighborhood seemed as safe as I would hope for in Dallas.  Convenient location with restaurants and grocery stores nearby (a short drive).Extended Stays use DISH Network, so not much in the way of television selection.  Had Showtime.I have spent more nights in hotels this year than most do in a lifetime.  If my experience at this Homestead Studio Suites is the norm (and I'm inclined to believe it is), it's a good hotel.  I would definitely stay there again or recommend it to someone I care about.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r143579702-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r143579702-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>143579702</t>
@@ -1085,7 +1316,7 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded October 24, 2012</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded October 24, 2012</t>
   </si>
   <si>
     <t>Responded October 24, 2012</t>
@@ -1094,7 +1325,7 @@
     <t>We stayed here for 2 nights when we went to see our daughter who was hospitalized.  The location was good, close to a Walmart and lots of restaurants.  The room was very large with 2 queen beds, a table with 2chairs, a small sofa and a recliner.  It had a 2 burner stove, a full size refrigerator and kitchen cabinets stocked with basic dishes, cutlery, and cooking pans.  There was also a coffee maker and a microwave.  The bathroom wad also spacious and well stocked with towels.  The breakfast was very skimpy --- only offered bagels, muffins, oatmeal, and coffee.  There wasn't even any juice.  Also, they only make beds if you stay a week or more.  We also had problems with our room key cards.  Out of the first 2cards, only one worked and later that day, it did not work nor did the replacement for the other card.  We will probably stay there again mainly because the price was so reasonable and the location very convenient to our daughter's apartment.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r139375224-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r139375224-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>139375224</t>
@@ -1109,7 +1340,7 @@
     <t>I have stayed at this location literally a hundred times or more over the last 8 years. I always stay at this Homestead location when I am visiting our branch office. Sometimes it is for a day or two and a few times for over a month. Every time, the rooms were clean, with everything I would expect from an extended stay location. I have never had an issue with the staff and anytime I did have a problem it was taken care of very quickly. When my visits were for an extend amount of time, it was great having such close access to the Dallas Tollway not to mention less than 15 min from some of the best dinning and shopping in North Dallas. While most of my visits are business, my wife and I have stayed on a number of occasions for short weekend getaway.Writing this reminds me, I need to make a reservation!MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded September 5, 2012</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded September 5, 2012</t>
   </si>
   <si>
     <t>Responded September 5, 2012</t>
@@ -1118,7 +1349,7 @@
     <t>I have stayed at this location literally a hundred times or more over the last 8 years. I always stay at this Homestead location when I am visiting our branch office. Sometimes it is for a day or two and a few times for over a month. Every time, the rooms were clean, with everything I would expect from an extended stay location. I have never had an issue with the staff and anytime I did have a problem it was taken care of very quickly. When my visits were for an extend amount of time, it was great having such close access to the Dallas Tollway not to mention less than 15 min from some of the best dinning and shopping in North Dallas. While most of my visits are business, my wife and I have stayed on a number of occasions for short weekend getaway.Writing this reminds me, I need to make a reservation!More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r135267754-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r135267754-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>135267754</t>
@@ -1136,7 +1367,7 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>ChristopherTM, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded July 26, 2012</t>
+    <t>ChristopherTM, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded July 26, 2012</t>
   </si>
   <si>
     <t>Responded July 26, 2012</t>
@@ -1145,10 +1376,7 @@
     <t>I would like to first say this is one of the most comfortable studio suites I've stayed and was treated  with 5-star service. The cleanliness, quiet sleep, comfortable bedding and the favorite part is the hotel staff. Always make you feel right at home and includes pet stay. Even though I don't have a pet, there's a cute pet policy in the lobby beautifully drafted and created by young children. It gives you the sense of home and away from home. I can't say enough about the staff and house cleaning. The towels and linen are always fresh and soft and cleaned. room temperature easy to adjust for comfort without any problems. The main reason is the kind staff. I have contacted family, friends and business associates to choose this location when in town. The tollway gives you easy access to tour and some of the best restaurants right around the corner including a post office, grocery store and mall down the toll going north or south. Again my favorites are the kind and friendly hotel staff.More</t>
   </si>
   <si>
-    <t>James C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r133864194-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r133864194-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>133864194</t>
@@ -1166,7 +1394,7 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>ChristopherTM, Manager at Crossland Economy Studios - Dallas - North Addison - Tollway, responded to this reviewResponded July 19, 2012</t>
+    <t>ChristopherTM, Manager at HomeTowne Studios Dallas – North Addison Tollway, responded to this reviewResponded July 19, 2012</t>
   </si>
   <si>
     <t>Responded July 19, 2012</t>
@@ -1175,10 +1403,7 @@
     <t>A great value for the price and location. Always a good pick for business travel on a budget. Close to The Addison private airport and the North Dallas business areas.  Easy to find on the North Dallas Tollway.More</t>
   </si>
   <si>
-    <t>Baltasar V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r133389900-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r133389900-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>133389900</t>
@@ -1205,10 +1430,7 @@
     <t>I was very happy staying there, the staff was very friendly (including housekeeping and maintenance persons) it is a big plus that some of them speak Spanish. The only things that I did not like was the slow internet speed and a limited choice tv channels. I am sure I will recommend to friends and I will return to this hotel.More</t>
   </si>
   <si>
-    <t>Corvettegrr</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r130950519-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r130950519-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>130950519</t>
@@ -1232,10 +1454,7 @@
     <t>I was very disappointed in my stay. I have stayed here several times in the past but my last 2 visits have been shocking. One night after dinner my co-workers and I decided to hit the town. A male friend of mine was waiting in the car and he was approached by a woman and after several minutes of conversation she told him her working name is diamond but he could call her kat. When he told her we were in for a convention she said if he got lonely just call up to room 251 but it would cost him. The nerve of her to solicit in the parking lot. She then went upstairs with two guys that pulled up stating she was going to have party favors such as drugs if he was interested. The following morning, there were 2 other girls lurking around. Very unprofessional.More</t>
   </si>
   <si>
-    <t>calinative09</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r117013946-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r117013946-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>117013946</t>
@@ -1250,10 +1469,7 @@
     <t xml:space="preserve">Stayed for three weeks.  Location is great. Price per week great.  Compared to the sister Homestead up the street needs work.  Management is in the process of redoing rooms.  Grounds are kept clean.  Front desk staff very helpful and WiFi was great.  </t>
   </si>
   <si>
-    <t>Late4Dinner_10</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r116398940-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r116398940-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>116398940</t>
@@ -1274,10 +1490,7 @@
     <t>Not horrible but be prepared. Negatives: The rooms were beat up.  The housekeeping service does little, if anything.  Floors are not vacuumed and full of other people's hair.  The "free Wi Fi" is a joke.  Signal strength is so week I had to go to a public library.  They wanted to charge I think $5.00 DAILY to upgrade to hi-speed.  Most requests at front desk cannot be accomodated or are ignored.  No joke, I got bit by some kind of bug at night in my room and killed two cockroaches in the room.  Positives: the price is right and the location is central to many amenities including a variety of restaurants.More</t>
   </si>
   <si>
-    <t>Gypsy23434</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r95721612-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r95721612-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>95721612</t>
@@ -1295,10 +1508,7 @@
     <t>February 2011</t>
   </si>
   <si>
-    <t>Laura D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r20860834-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r20860834-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>20860834</t>
@@ -1323,10 +1533,7 @@
 The other problem was the A/C ended up not working properly. It was well over 100 degrees during the day, so at first I tried to tell myself it was my imagination, but it really didn't work.  I didn't even try to complain about it b/c the front desk person was completely useless. He couldn't give us the number to any cab company, nor could he suggest a place...Well, the saying "beggars can't be choosers" applies here. My husband is a musician and was playing a show in Frisco, TX. I thought we were going to sleep in the van for the two nights we would have been there, but (long story short) someone in the band booked a handful of rooms for the whole gang. Needless to say, he picked the cheapest hotel he could find. I didn't complain to him since the room was free....and really was grateful that I didn't have to sleep in the van. This hotel is one step up from sleeping in a van.I guess it could have been worse, I mean~ at least the bed was clean. The moment we walked in, I noticed the tomato sauce splattered all over the kitchen area. While cleaning that, I noticed something was in the microwave....someone had left a sandwich in there. Not a big deal, but to me this means the room wasn't cleaned thoroughly which is a big problem in my eyes. The other problem was the A/C ended up not working properly. It was well over 100 degrees during the day, so at first I tried to tell myself it was my imagination, but it really didn't work.  I didn't even try to complain about it b/c the front desk person was completely useless. He couldn't give us the number to any cab company, nor could he suggest a place to eat. I suppose if you just need a bed, a bathroom and a roof, this place is fine. If you're looking for anything pleasant, you should look elsewhere.More</t>
   </si>
   <si>
-    <t>schweetbubble</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r11483574-Crossland_Economy_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217716-r11483574-HomeTowne_Studios_Dallas_North_Addison_Tollway-Dallas_Texas.html</t>
   </si>
   <si>
     <t>11483574</t>
@@ -1849,114 +2056,100 @@
       <c r="A2" t="n">
         <v>31351</v>
       </c>
-      <c r="B2" t="n">
-        <v>127613</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31351</v>
       </c>
-      <c r="B3" t="n">
-        <v>21757</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1967,36 +2160,36 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31351</v>
       </c>
-      <c r="B4" t="n">
-        <v>127614</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -2011,7 +2204,7 @@
         <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>69</v>
@@ -2021,76 +2214,76 @@
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31351</v>
       </c>
-      <c r="B5" t="n">
-        <v>127615</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
       <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2098,112 +2291,110 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31351</v>
       </c>
-      <c r="B6" t="n">
-        <v>7012</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>70</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31351</v>
       </c>
-      <c r="B7" t="n">
-        <v>2814</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
         <v>70</v>
@@ -2217,68 +2408,62 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31351</v>
       </c>
-      <c r="B8" t="n">
-        <v>127616</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>1</v>
@@ -2289,121 +2474,107 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31351</v>
       </c>
-      <c r="B9" t="n">
-        <v>127617</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31351</v>
       </c>
-      <c r="B10" t="n">
-        <v>127618</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2417,68 +2588,70 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31351</v>
       </c>
-      <c r="B11" t="n">
-        <v>68134</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -2491,104 +2664,94 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31351</v>
       </c>
-      <c r="B13" t="n">
-        <v>11040</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2599,753 +2762,677 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31351</v>
       </c>
-      <c r="B14" t="n">
-        <v>127619</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>144</v>
-      </c>
-      <c r="X14" t="s">
-        <v>145</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31351</v>
       </c>
-      <c r="B15" t="n">
-        <v>127620</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
         <v>70</v>
       </c>
-      <c r="P15" t="s"/>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>154</v>
-      </c>
-      <c r="X15" t="s">
-        <v>155</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31351</v>
       </c>
-      <c r="B16" t="n">
-        <v>127621</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>164</v>
-      </c>
-      <c r="X16" t="s">
-        <v>165</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31351</v>
       </c>
-      <c r="B17" t="n">
-        <v>127622</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="O17" t="s">
         <v>70</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>174</v>
-      </c>
-      <c r="X17" t="s">
-        <v>175</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31351</v>
       </c>
-      <c r="B18" t="n">
-        <v>53653</v>
-      </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>185</v>
-      </c>
-      <c r="X18" t="s">
-        <v>186</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31351</v>
       </c>
-      <c r="B19" t="n">
-        <v>127623</v>
-      </c>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31351</v>
       </c>
-      <c r="B20" t="n">
-        <v>127624</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s">
-        <v>194</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31351</v>
       </c>
-      <c r="B21" t="n">
-        <v>2814</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31351</v>
       </c>
-      <c r="B22" t="n">
-        <v>78721</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="X22" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31351</v>
       </c>
-      <c r="B23" t="n">
-        <v>127625</v>
-      </c>
-      <c r="C23" t="s">
-        <v>223</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>184</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31351</v>
       </c>
-      <c r="B24" t="n">
-        <v>127626</v>
-      </c>
-      <c r="C24" t="s">
-        <v>233</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
         <v>5</v>
       </c>
@@ -3356,73 +3443,67 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31351</v>
       </c>
-      <c r="B25" t="n">
-        <v>127627</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
-        <v>184</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
         <v>5</v>
       </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3430,217 +3511,193 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31351</v>
       </c>
-      <c r="B26" t="n">
-        <v>127628</v>
-      </c>
-      <c r="C26" t="s">
-        <v>247</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31351</v>
       </c>
-      <c r="B27" t="n">
-        <v>127629</v>
-      </c>
-      <c r="C27" t="s">
-        <v>257</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
-      <c r="N27" t="s">
-        <v>263</v>
-      </c>
-      <c r="O27" t="s">
-        <v>184</v>
-      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
         <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="X27" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="Y27" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31351</v>
       </c>
-      <c r="B28" t="n">
-        <v>127630</v>
-      </c>
-      <c r="C28" t="s">
-        <v>267</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
       </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>1</v>
@@ -3648,73 +3705,61 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>274</v>
-      </c>
-      <c r="X28" t="s">
-        <v>275</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31351</v>
       </c>
-      <c r="B29" t="n">
-        <v>127631</v>
-      </c>
-      <c r="C29" t="s">
-        <v>277</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
-        <v>283</v>
-      </c>
-      <c r="O29" t="s">
-        <v>70</v>
-      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3723,204 +3768,184 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>284</v>
-      </c>
-      <c r="X29" t="s">
-        <v>285</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31351</v>
       </c>
-      <c r="B30" t="n">
-        <v>127632</v>
-      </c>
-      <c r="C30" t="s">
-        <v>287</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
         <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>293</v>
-      </c>
-      <c r="X30" t="s">
-        <v>294</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31351</v>
       </c>
-      <c r="B31" t="n">
-        <v>127633</v>
-      </c>
-      <c r="C31" t="s">
-        <v>296</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>303</v>
-      </c>
-      <c r="X31" t="s">
-        <v>304</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31351</v>
       </c>
-      <c r="B32" t="n">
-        <v>127634</v>
-      </c>
-      <c r="C32" t="s">
-        <v>306</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="O32" t="s">
         <v>70</v>
@@ -3929,154 +3954,132 @@
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>313</v>
-      </c>
-      <c r="X32" t="s">
-        <v>314</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31351</v>
       </c>
-      <c r="B33" t="n">
-        <v>127635</v>
-      </c>
-      <c r="C33" t="s">
-        <v>316</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="O33" t="s">
-        <v>70</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="X33" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="Y33" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31351</v>
       </c>
-      <c r="B34" t="n">
-        <v>14778</v>
-      </c>
-      <c r="C34" t="s">
-        <v>325</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="J34" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
         <v>5</v>
@@ -4095,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="X34" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Y34" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -4114,38 +4117,34 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>340</v>
-      </c>
-      <c r="O35" t="s">
-        <v>194</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="n">
         <v>5</v>
       </c>
@@ -4160,19 +4159,15 @@
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>341</v>
-      </c>
-      <c r="X35" t="s">
-        <v>342</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
@@ -4185,43 +4180,43 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="J36" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="K36" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
         <v>5</v>
@@ -4236,14 +4231,10 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>349</v>
-      </c>
-      <c r="X36" t="s">
-        <v>350</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
@@ -4256,193 +4247,181 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="J37" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="X37" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="Y37" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31351</v>
       </c>
-      <c r="B38" t="n">
-        <v>4611</v>
-      </c>
-      <c r="C38" t="s">
-        <v>361</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
       <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="X38" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="Y38" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31351</v>
       </c>
-      <c r="B39" t="n">
-        <v>127636</v>
-      </c>
-      <c r="C39" t="s">
-        <v>371</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="N39" t="s">
-        <v>377</v>
-      </c>
-      <c r="O39" t="s">
-        <v>184</v>
-      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
         <v>5</v>
@@ -4458,139 +4437,139 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="X39" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="Y39" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31351</v>
       </c>
-      <c r="B40" t="n">
-        <v>127637</v>
-      </c>
-      <c r="C40" t="s">
-        <v>381</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="J40" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="K40" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>322</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="X40" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="Y40" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31351</v>
       </c>
-      <c r="B41" t="n">
-        <v>127638</v>
-      </c>
-      <c r="C41" t="s">
-        <v>390</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="J41" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="K41" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4599,204 +4578,208 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>332</v>
+      </c>
+      <c r="X41" t="s">
+        <v>333</v>
+      </c>
       <c r="Y41" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31351</v>
       </c>
-      <c r="B42" t="n">
-        <v>127639</v>
-      </c>
-      <c r="C42" t="s">
-        <v>396</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="J42" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s">
         <v>70</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>340</v>
+      </c>
+      <c r="X42" t="s">
+        <v>341</v>
+      </c>
       <c r="Y42" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31351</v>
       </c>
-      <c r="B43" t="n">
-        <v>127640</v>
-      </c>
-      <c r="C43" t="s">
-        <v>404</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="J43" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>348</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
         <v>2</v>
       </c>
-      <c r="N43" t="s">
-        <v>410</v>
-      </c>
-      <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>349</v>
+      </c>
+      <c r="X43" t="s">
+        <v>350</v>
+      </c>
       <c r="Y43" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31351</v>
       </c>
-      <c r="B44" t="n">
-        <v>25677</v>
-      </c>
-      <c r="C44" t="s">
-        <v>411</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="K44" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="O44" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -4808,81 +4791,1185 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>357</v>
+      </c>
+      <c r="X44" t="s">
+        <v>358</v>
+      </c>
       <c r="Y44" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31351</v>
       </c>
-      <c r="B45" t="n">
-        <v>127641</v>
-      </c>
-      <c r="C45" t="s">
-        <v>419</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="J45" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="K45" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>366</v>
+      </c>
+      <c r="X45" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>370</v>
+      </c>
+      <c r="J46" t="s">
+        <v>371</v>
+      </c>
+      <c r="K46" t="s">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s">
+        <v>373</v>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s">
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>374</v>
+      </c>
+      <c r="X46" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>382</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>383</v>
+      </c>
+      <c r="X47" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>392</v>
+      </c>
+      <c r="X48" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>395</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" t="s">
+        <v>288</v>
+      </c>
+      <c r="L49" t="s">
+        <v>398</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>399</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>400</v>
+      </c>
+      <c r="X49" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>404</v>
+      </c>
+      <c r="J50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K50" t="s">
+        <v>406</v>
+      </c>
+      <c r="L50" t="s">
+        <v>407</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>408</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>409</v>
+      </c>
+      <c r="X50" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" t="s">
+        <v>415</v>
+      </c>
+      <c r="L51" t="s">
+        <v>416</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>417</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>418</v>
+      </c>
+      <c r="X51" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>421</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>422</v>
+      </c>
+      <c r="J52" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" t="s">
+        <v>424</v>
+      </c>
+      <c r="L52" t="s">
+        <v>425</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>382</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
         <v>426</v>
+      </c>
+      <c r="X52" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>430</v>
+      </c>
+      <c r="J53" t="s">
+        <v>431</v>
+      </c>
+      <c r="K53" t="s">
+        <v>432</v>
+      </c>
+      <c r="L53" t="s">
+        <v>433</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>434</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>435</v>
+      </c>
+      <c r="X53" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>439</v>
+      </c>
+      <c r="J54" t="s">
+        <v>440</v>
+      </c>
+      <c r="K54" t="s">
+        <v>441</v>
+      </c>
+      <c r="L54" t="s">
+        <v>442</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>443</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>444</v>
+      </c>
+      <c r="X54" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>448</v>
+      </c>
+      <c r="J55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K55" t="s">
+        <v>450</v>
+      </c>
+      <c r="L55" t="s">
+        <v>451</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>452</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>453</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" t="s">
+        <v>459</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>461</v>
+      </c>
+      <c r="X56" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>469</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>470</v>
+      </c>
+      <c r="J58" t="s">
+        <v>471</v>
+      </c>
+      <c r="K58" t="s">
+        <v>472</v>
+      </c>
+      <c r="L58" t="s">
+        <v>473</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>474</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" t="s">
+        <v>478</v>
+      </c>
+      <c r="K59" t="s">
+        <v>479</v>
+      </c>
+      <c r="L59" t="s">
+        <v>480</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>481</v>
+      </c>
+      <c r="O59" t="s">
+        <v>95</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>483</v>
+      </c>
+      <c r="J60" t="s">
+        <v>484</v>
+      </c>
+      <c r="K60" t="s">
+        <v>485</v>
+      </c>
+      <c r="L60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>487</v>
+      </c>
+      <c r="O60" t="s">
+        <v>83</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31351</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>489</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>490</v>
+      </c>
+      <c r="J61" t="s">
+        <v>491</v>
+      </c>
+      <c r="K61" t="s">
+        <v>492</v>
+      </c>
+      <c r="L61" t="s">
+        <v>493</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>494</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
